--- a/Code/Results/Cases/Case_5_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_162/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.266892332066107</v>
+        <v>0.7667715243636337</v>
       </c>
       <c r="C2">
-        <v>0.3864267224027174</v>
+        <v>0.2713778478191671</v>
       </c>
       <c r="D2">
-        <v>0.08934365274589595</v>
+        <v>0.08107532069008982</v>
       </c>
       <c r="E2">
-        <v>0.1342973236621212</v>
+        <v>0.1350018207781183</v>
       </c>
       <c r="F2">
-        <v>1.8197994347166</v>
+        <v>2.72955882362993</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.833083408373767</v>
+        <v>1.369635133289705</v>
       </c>
       <c r="J2">
-        <v>0.2079416344172529</v>
+        <v>0.2156021860236734</v>
       </c>
       <c r="K2">
-        <v>1.631343070472781</v>
+        <v>1.030382707340522</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.367418896156828</v>
+        <v>2.548320960721064</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.101998248630736</v>
+        <v>0.7263890224822944</v>
       </c>
       <c r="C3">
-        <v>0.3383445111320782</v>
+        <v>0.2603134060771026</v>
       </c>
       <c r="D3">
-        <v>0.07786447159202936</v>
+        <v>0.07855395878269888</v>
       </c>
       <c r="E3">
-        <v>0.1190299556991441</v>
+        <v>0.1318959325522293</v>
       </c>
       <c r="F3">
-        <v>1.715627582781792</v>
+        <v>2.717530195679089</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8056933265299691</v>
+        <v>1.3692536558898</v>
       </c>
       <c r="J3">
-        <v>0.1863683806269876</v>
+        <v>0.2113600284143615</v>
       </c>
       <c r="K3">
-        <v>1.421147412608065</v>
+        <v>0.9797632597496602</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.405347126153686</v>
+        <v>2.564830886544549</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.001989606570675</v>
+        <v>0.702025315822624</v>
       </c>
       <c r="C4">
-        <v>0.3093545224589889</v>
+        <v>0.253684088700453</v>
       </c>
       <c r="D4">
-        <v>0.07087884341282802</v>
+        <v>0.07704666928807313</v>
       </c>
       <c r="E4">
-        <v>0.1098255054972199</v>
+        <v>0.1300628855400099</v>
       </c>
       <c r="F4">
-        <v>1.65475880748221</v>
+        <v>2.711447463747049</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7902999092184544</v>
+        <v>1.369619534222224</v>
       </c>
       <c r="J4">
-        <v>0.1734422392747703</v>
+        <v>0.2088774292418734</v>
       </c>
       <c r="K4">
-        <v>1.293856926144144</v>
+        <v>0.9492766824182581</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.430339937272244</v>
+        <v>2.575691282604836</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.96150907075031</v>
+        <v>0.6922053995449744</v>
       </c>
       <c r="C5">
-        <v>0.2976600692022373</v>
+        <v>0.2510237924616376</v>
       </c>
       <c r="D5">
-        <v>0.06804599847610149</v>
+        <v>0.07644274143548557</v>
       </c>
       <c r="E5">
-        <v>0.106113225085771</v>
+        <v>0.1293345034873283</v>
       </c>
       <c r="F5">
-        <v>1.630679126490207</v>
+        <v>2.709296048314187</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7843635410023921</v>
+        <v>1.369919395441833</v>
       </c>
       <c r="J5">
-        <v>0.1682479118340225</v>
+        <v>0.207896404893674</v>
       </c>
       <c r="K5">
-        <v>1.242378437597921</v>
+        <v>0.9370024204892502</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.440937192308219</v>
+        <v>2.580298677090624</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9548028034361948</v>
+        <v>0.6905813637756921</v>
       </c>
       <c r="C6">
-        <v>0.2957250019794913</v>
+        <v>0.2505845378130402</v>
       </c>
       <c r="D6">
-        <v>0.06757639055223308</v>
+        <v>0.07634308313484439</v>
       </c>
       <c r="E6">
-        <v>0.1054990213044142</v>
+        <v>0.1292146794776521</v>
       </c>
       <c r="F6">
-        <v>1.626723010691961</v>
+        <v>2.708958570481656</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7833975367956398</v>
+        <v>1.369978288872012</v>
       </c>
       <c r="J6">
-        <v>0.1673896143732421</v>
+        <v>0.2077353566308489</v>
       </c>
       <c r="K6">
-        <v>1.233852787510898</v>
+        <v>0.9349733014612411</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.442721319193936</v>
+        <v>2.581074700493801</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.001442610741407</v>
+        <v>0.7018924416694858</v>
       </c>
       <c r="C7">
-        <v>0.3091963430715339</v>
+        <v>0.2536480443220057</v>
       </c>
       <c r="D7">
-        <v>0.07084058498905677</v>
+        <v>0.07703848273277458</v>
       </c>
       <c r="E7">
-        <v>0.1097752892646433</v>
+        <v>0.1300529870201252</v>
       </c>
       <c r="F7">
-        <v>1.654431193062507</v>
+        <v>2.711417123964438</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7902185139445663</v>
+        <v>1.36962296801287</v>
       </c>
       <c r="J7">
-        <v>0.1733718997059697</v>
+        <v>0.2088640747466641</v>
       </c>
       <c r="K7">
-        <v>1.293161142219162</v>
+        <v>0.9491105431764311</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.430481206006597</v>
+        <v>2.575752684098724</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.209756854074982</v>
+        <v>0.7527581237681886</v>
       </c>
       <c r="C8">
-        <v>0.36972820314503</v>
+        <v>0.2675286589344523</v>
       </c>
       <c r="D8">
-        <v>0.08537144734500401</v>
+        <v>0.08019749994583236</v>
       </c>
       <c r="E8">
-        <v>0.1289953500388386</v>
+        <v>0.1339155521335051</v>
       </c>
       <c r="F8">
-        <v>1.783205960870404</v>
+        <v>2.72514075881476</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8233302763569768</v>
+        <v>1.369378960174068</v>
       </c>
       <c r="J8">
-        <v>0.2004322410446449</v>
+        <v>0.2141141162422926</v>
       </c>
       <c r="K8">
-        <v>1.558467799787195</v>
+        <v>1.0128057680175</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.380132643067405</v>
+        <v>2.553863374647563</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.629909795458559</v>
+        <v>0.8559326802432565</v>
       </c>
       <c r="C9">
-        <v>0.4933842384203331</v>
+        <v>0.2960588165684896</v>
       </c>
       <c r="D9">
-        <v>0.1144570085355099</v>
+        <v>0.08671518670705325</v>
       </c>
       <c r="E9">
-        <v>0.1682335978780003</v>
+        <v>0.1420777950149841</v>
       </c>
       <c r="F9">
-        <v>2.062870657667588</v>
+        <v>2.762407981765648</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9006171004602237</v>
+        <v>1.373669887941404</v>
       </c>
       <c r="J9">
-        <v>0.2563928283222197</v>
+        <v>0.2253812985056811</v>
       </c>
       <c r="K9">
-        <v>2.095331634800488</v>
+        <v>1.142437021405044</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.29571421096</v>
+        <v>2.516684461755077</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.948502846087422</v>
+        <v>0.9338402286476537</v>
       </c>
       <c r="C10">
-        <v>0.58836744824589</v>
+        <v>0.3178306191757656</v>
       </c>
       <c r="D10">
-        <v>0.136329568096798</v>
+        <v>0.09169963031925477</v>
       </c>
       <c r="E10">
-        <v>0.1983118440163523</v>
+        <v>0.14843482373076</v>
       </c>
       <c r="F10">
-        <v>2.288837380311165</v>
+        <v>2.796132083912823</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9665355552137669</v>
+        <v>1.379743150831558</v>
       </c>
       <c r="J10">
-        <v>0.2998169682209664</v>
+        <v>0.2342571856878948</v>
       </c>
       <c r="K10">
-        <v>2.503785588369823</v>
+        <v>1.240586262868902</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.243615792344769</v>
+        <v>2.492882011755796</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.096285319330491</v>
+        <v>0.9697435849798808</v>
       </c>
       <c r="C11">
-        <v>0.6327530020529082</v>
+        <v>0.3279139580951664</v>
       </c>
       <c r="D11">
-        <v>0.1464246778811713</v>
+        <v>0.0940095702992636</v>
       </c>
       <c r="E11">
-        <v>0.2123425062003221</v>
+        <v>0.1514054942526499</v>
       </c>
       <c r="F11">
-        <v>2.397067262705562</v>
+        <v>2.812858823555317</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9989053403926391</v>
+        <v>1.383143276038645</v>
       </c>
       <c r="J11">
-        <v>0.3202085861340862</v>
+        <v>0.2384261352473516</v>
       </c>
       <c r="K11">
-        <v>2.693614767594852</v>
+        <v>1.285875558275734</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.222368311591609</v>
+        <v>2.482818692443018</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.152721006017543</v>
+        <v>0.9834059455107536</v>
       </c>
       <c r="C12">
-        <v>0.6497557794580189</v>
+        <v>0.3317582010879789</v>
       </c>
       <c r="D12">
-        <v>0.1502715450239549</v>
+        <v>0.09489036937600304</v>
       </c>
       <c r="E12">
-        <v>0.2177125868977825</v>
+        <v>0.1525417665050597</v>
       </c>
       <c r="F12">
-        <v>2.438923974139755</v>
+        <v>2.819392504738801</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.011542655220339</v>
+        <v>1.384522680477438</v>
       </c>
       <c r="J12">
-        <v>0.3280346117296915</v>
+        <v>0.2400237617334398</v>
       </c>
       <c r="K12">
-        <v>2.766165931446665</v>
+        <v>1.303117896873715</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.214703226304707</v>
+        <v>2.479118127891908</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.140544425095527</v>
+        <v>0.9804605525689567</v>
       </c>
       <c r="C13">
-        <v>0.6460848196500137</v>
+        <v>0.3309291205556519</v>
       </c>
       <c r="D13">
-        <v>0.1494419287015631</v>
+        <v>0.09470040390854706</v>
       </c>
       <c r="E13">
-        <v>0.2165533918826625</v>
+        <v>0.1522965452825744</v>
       </c>
       <c r="F13">
-        <v>2.429869038331461</v>
+        <v>2.817976474662629</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.008803473318196</v>
+        <v>1.384221512768036</v>
       </c>
       <c r="J13">
-        <v>0.3263442922844604</v>
+        <v>0.2396788411431174</v>
       </c>
       <c r="K13">
-        <v>2.750509565655619</v>
+        <v>1.29940034505546</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.216336618496896</v>
+        <v>2.479910205533642</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.10091843782493</v>
+        <v>0.9708662621339386</v>
       </c>
       <c r="C14">
-        <v>0.6341477673869633</v>
+        <v>0.3282297064395152</v>
       </c>
       <c r="D14">
-        <v>0.1467406601857988</v>
+        <v>0.09408191261897514</v>
       </c>
       <c r="E14">
-        <v>0.2127831218512242</v>
+        <v>0.1514987486563371</v>
       </c>
       <c r="F14">
-        <v>2.400492802775261</v>
+        <v>2.813392350290627</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9999371877313195</v>
+        <v>1.383254918498388</v>
       </c>
       <c r="J14">
-        <v>0.3208502744699047</v>
+        <v>0.2385571930911539</v>
       </c>
       <c r="K14">
-        <v>2.699569687675904</v>
+        <v>1.287292245936385</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.221729894779557</v>
+        <v>2.482512034789266</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.076710054642035</v>
+        <v>0.9649981471709452</v>
       </c>
       <c r="C15">
-        <v>0.6268621717854614</v>
+        <v>0.3265796142908641</v>
       </c>
       <c r="D15">
-        <v>0.1450892897038329</v>
+        <v>0.09370385894199273</v>
       </c>
       <c r="E15">
-        <v>0.2104813602760913</v>
+        <v>0.1510115527514202</v>
       </c>
       <c r="F15">
-        <v>2.382615471956527</v>
+        <v>2.810610451140988</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9945569235555638</v>
+        <v>1.382674819222686</v>
       </c>
       <c r="J15">
-        <v>0.3174989864531881</v>
+        <v>0.2378726190697193</v>
       </c>
       <c r="K15">
-        <v>2.668457189170795</v>
+        <v>1.279887705305839</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.225083921947444</v>
+        <v>2.484120088820916</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.938907599716032</v>
+        <v>0.9315031716763258</v>
       </c>
       <c r="C16">
-        <v>0.5854925681678083</v>
+        <v>0.3171752668037016</v>
       </c>
       <c r="D16">
-        <v>0.135673016064672</v>
+        <v>0.09154952232157143</v>
       </c>
       <c r="E16">
-        <v>0.1974024860511179</v>
+        <v>0.1482422703407451</v>
       </c>
       <c r="F16">
-        <v>2.281881239585672</v>
+        <v>2.795066865316301</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9644711372767105</v>
+        <v>1.379533786977689</v>
       </c>
       <c r="J16">
-        <v>0.2984981972376914</v>
+        <v>0.2339873815182045</v>
       </c>
       <c r="K16">
-        <v>2.491468104744229</v>
+        <v>1.237639404777127</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.245056059467899</v>
+        <v>2.493555079581981</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.855144118627408</v>
+        <v>0.9110736169455436</v>
       </c>
       <c r="C17">
-        <v>0.5604325879018006</v>
+        <v>0.3114520009980879</v>
       </c>
       <c r="D17">
-        <v>0.1299357950158537</v>
+        <v>0.0902387644421907</v>
       </c>
       <c r="E17">
-        <v>0.1894728559548184</v>
+        <v>0.1465636005731739</v>
       </c>
       <c r="F17">
-        <v>2.221538121848567</v>
+        <v>2.785886513406794</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9466499546806304</v>
+        <v>1.377770250478903</v>
       </c>
       <c r="J17">
-        <v>0.2870136429184811</v>
+        <v>0.2316375764883389</v>
       </c>
       <c r="K17">
-        <v>2.383981344557014</v>
+        <v>1.211885634241298</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.257955603926689</v>
+        <v>2.499539137773127</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.807229953024773</v>
+        <v>0.8993666409330103</v>
       </c>
       <c r="C18">
-        <v>0.5461278685425839</v>
+        <v>0.3081769927461551</v>
       </c>
       <c r="D18">
-        <v>0.1266493529206087</v>
+        <v>0.08948885277121121</v>
       </c>
       <c r="E18">
-        <v>0.1849442353180279</v>
+        <v>0.1456054930734965</v>
       </c>
       <c r="F18">
-        <v>2.187336121825524</v>
+        <v>2.780736601070444</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9366215771336712</v>
+        <v>1.376815890890114</v>
       </c>
       <c r="J18">
-        <v>0.280467243123951</v>
+        <v>0.2302983823195319</v>
       </c>
       <c r="K18">
-        <v>2.32253050235272</v>
+        <v>1.197133045249331</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.265604052855707</v>
+        <v>2.50305295567064</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.791050615488558</v>
+        <v>0.8954103426145537</v>
       </c>
       <c r="C19">
-        <v>0.541302539193822</v>
+        <v>0.307071023591277</v>
       </c>
       <c r="D19">
-        <v>0.1255388388282341</v>
+        <v>0.08923563392389156</v>
       </c>
       <c r="E19">
-        <v>0.1834162680905962</v>
+        <v>0.145282368292726</v>
       </c>
       <c r="F19">
-        <v>2.175840163411877</v>
+        <v>2.779015310708061</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9332631875429342</v>
+        <v>1.37650305677392</v>
       </c>
       <c r="J19">
-        <v>0.278260555252217</v>
+        <v>0.2298470737540299</v>
       </c>
       <c r="K19">
-        <v>2.301785756405963</v>
+        <v>1.192148424560003</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.268232199366011</v>
+        <v>2.504255023080432</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.864033083214167</v>
+        <v>0.913243869381887</v>
       </c>
       <c r="C20">
-        <v>0.5630887949588157</v>
+        <v>0.3120595062557641</v>
       </c>
       <c r="D20">
-        <v>0.130545117231776</v>
+        <v>0.09037788296384974</v>
       </c>
       <c r="E20">
-        <v>0.1903135883295448</v>
+        <v>0.1467415299418064</v>
       </c>
       <c r="F20">
-        <v>2.227908777446316</v>
+        <v>2.786850280489219</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9485238293015215</v>
+        <v>1.37795177281626</v>
       </c>
       <c r="J20">
-        <v>0.2882299789093992</v>
+        <v>0.2318864384757262</v>
       </c>
       <c r="K20">
-        <v>2.395384306720018</v>
+        <v>1.214620925465539</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.25655853246127</v>
+        <v>2.498894676571283</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.112544157928141</v>
+        <v>0.9736825320528624</v>
       </c>
       <c r="C21">
-        <v>0.6376484605841313</v>
+        <v>0.3290218858193157</v>
       </c>
       <c r="D21">
-        <v>0.1475334080180914</v>
+        <v>0.09426341391073834</v>
       </c>
       <c r="E21">
-        <v>0.2138889364647127</v>
+        <v>0.1517327729250653</v>
       </c>
       <c r="F21">
-        <v>2.409096869633586</v>
+        <v>2.814733397683369</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.002530816206175</v>
+        <v>1.383536336265003</v>
       </c>
       <c r="J21">
-        <v>0.3224610680810258</v>
+        <v>0.2388861339176742</v>
       </c>
       <c r="K21">
-        <v>2.71451311077459</v>
+        <v>1.290846183014366</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.220135182156994</v>
+        <v>2.481744821705561</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.277755664855306</v>
+        <v>1.013570527292131</v>
       </c>
       <c r="C22">
-        <v>0.687527663432661</v>
+        <v>0.3402588151404871</v>
       </c>
       <c r="D22">
-        <v>0.1587782407818281</v>
+        <v>0.09683822632146644</v>
       </c>
       <c r="E22">
-        <v>0.2296326209564867</v>
+        <v>0.1550609635158722</v>
       </c>
       <c r="F22">
-        <v>2.532647811510373</v>
+        <v>2.834120401188784</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.040059927061904</v>
+        <v>1.387721642510073</v>
       </c>
       <c r="J22">
-        <v>0.3454469405404126</v>
+        <v>0.2435712402594277</v>
       </c>
       <c r="K22">
-        <v>2.927017833952362</v>
+        <v>1.341201654321907</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.198565767432825</v>
+        <v>2.471178829844632</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.189300735302027</v>
+        <v>0.9922460700466331</v>
       </c>
       <c r="C23">
-        <v>0.6607917482679397</v>
+        <v>0.3342475922470101</v>
       </c>
       <c r="D23">
-        <v>0.1527625298473083</v>
+        <v>0.09546077353724058</v>
       </c>
       <c r="E23">
-        <v>0.2211967089105684</v>
+        <v>0.1532785921244724</v>
       </c>
       <c r="F23">
-        <v>2.466204137007551</v>
+        <v>2.823666573541004</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.019812465254901</v>
+        <v>1.385438803817422</v>
       </c>
       <c r="J23">
-        <v>0.3331183186798086</v>
+        <v>0.2410605890287485</v>
       </c>
       <c r="K23">
-        <v>2.813208203259961</v>
+        <v>1.314276732149068</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.209863109948998</v>
+        <v>2.476759230073654</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.860013631470451</v>
+        <v>0.9122625791175096</v>
       </c>
       <c r="C24">
-        <v>0.5618876060861453</v>
+        <v>0.3117848052524153</v>
       </c>
       <c r="D24">
-        <v>0.1302696056340693</v>
+        <v>0.09031497607581684</v>
       </c>
       <c r="E24">
-        <v>0.1899333995814132</v>
+        <v>0.1466610663278942</v>
       </c>
       <c r="F24">
-        <v>2.225027084353258</v>
+        <v>2.786414162706507</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9476759766178517</v>
+        <v>1.37786952116474</v>
       </c>
       <c r="J24">
-        <v>0.2876798992096212</v>
+        <v>0.2317738914086931</v>
       </c>
       <c r="K24">
-        <v>2.390227960366161</v>
+        <v>1.213384133365366</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.257189426915787</v>
+        <v>2.499185808514738</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.514725563059045</v>
+        <v>0.8276527040744952</v>
       </c>
       <c r="C25">
-        <v>0.4592930225862801</v>
+        <v>0.2881991530478558</v>
       </c>
       <c r="D25">
-        <v>0.1065113116494416</v>
+        <v>0.08491751243862211</v>
       </c>
       <c r="E25">
-        <v>0.157422920671749</v>
+        <v>0.1398065722140913</v>
       </c>
       <c r="F25">
-        <v>1.983922018402396</v>
+        <v>2.751214431737125</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8782294313340344</v>
+        <v>1.37199713150563</v>
       </c>
       <c r="J25">
-        <v>0.2408907573473584</v>
+        <v>0.2222286259927557</v>
       </c>
       <c r="K25">
-        <v>1.947937155813719</v>
+        <v>1.106859545683477</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.316902375614163</v>
+        <v>2.526126182016057</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_162/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7667715243636337</v>
+        <v>1.266892332066192</v>
       </c>
       <c r="C2">
-        <v>0.2713778478191671</v>
+        <v>0.3864267224027742</v>
       </c>
       <c r="D2">
-        <v>0.08107532069008982</v>
+        <v>0.08934365274596701</v>
       </c>
       <c r="E2">
-        <v>0.1350018207781183</v>
+        <v>0.1342973236620928</v>
       </c>
       <c r="F2">
-        <v>2.72955882362993</v>
+        <v>1.819799434716586</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.369635133289705</v>
+        <v>0.8330834083737528</v>
       </c>
       <c r="J2">
-        <v>0.2156021860236734</v>
+        <v>0.2079416344171534</v>
       </c>
       <c r="K2">
-        <v>1.030382707340522</v>
+        <v>1.631343070472724</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.548320960721064</v>
+        <v>1.367418896156885</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7263890224822944</v>
+        <v>1.10199824863065</v>
       </c>
       <c r="C3">
-        <v>0.2603134060771026</v>
+        <v>0.3383445111320782</v>
       </c>
       <c r="D3">
-        <v>0.07855395878269888</v>
+        <v>0.07786447159215015</v>
       </c>
       <c r="E3">
-        <v>0.1318959325522293</v>
+        <v>0.1190299556991405</v>
       </c>
       <c r="F3">
-        <v>2.717530195679089</v>
+        <v>1.715627582781821</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.3692536558898</v>
+        <v>0.8056933265299762</v>
       </c>
       <c r="J3">
-        <v>0.2113600284143615</v>
+        <v>0.1863683806269876</v>
       </c>
       <c r="K3">
-        <v>0.9797632597496602</v>
+        <v>1.421147412608008</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.564830886544549</v>
+        <v>1.405347126153686</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.702025315822624</v>
+        <v>1.001989606570589</v>
       </c>
       <c r="C4">
-        <v>0.253684088700453</v>
+        <v>0.309354522459131</v>
       </c>
       <c r="D4">
-        <v>0.07704666928807313</v>
+        <v>0.07087884341294881</v>
       </c>
       <c r="E4">
-        <v>0.1300628855400099</v>
+        <v>0.1098255054972128</v>
       </c>
       <c r="F4">
-        <v>2.711447463747049</v>
+        <v>1.65475880748221</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.369619534222224</v>
+        <v>0.7902999092184544</v>
       </c>
       <c r="J4">
-        <v>0.2088774292418734</v>
+        <v>0.1734422392747703</v>
       </c>
       <c r="K4">
-        <v>0.9492766824182581</v>
+        <v>1.29385692614423</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.575691282604836</v>
+        <v>1.430339937272244</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6922053995449744</v>
+        <v>0.9615090707499974</v>
       </c>
       <c r="C5">
-        <v>0.2510237924616376</v>
+        <v>0.2976600692018678</v>
       </c>
       <c r="D5">
-        <v>0.07644274143548557</v>
+        <v>0.06804599847607307</v>
       </c>
       <c r="E5">
-        <v>0.1293345034873283</v>
+        <v>0.1061132250858137</v>
       </c>
       <c r="F5">
-        <v>2.709296048314187</v>
+        <v>1.630679126490236</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.369919395441833</v>
+        <v>0.7843635410023992</v>
       </c>
       <c r="J5">
-        <v>0.207896404893674</v>
+        <v>0.1682479118340297</v>
       </c>
       <c r="K5">
-        <v>0.9370024204892502</v>
+        <v>1.242378437597893</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.580298677090624</v>
+        <v>1.44093719230824</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6905813637756921</v>
+        <v>0.9548028034362233</v>
       </c>
       <c r="C6">
-        <v>0.2505845378130402</v>
+        <v>0.295725001979406</v>
       </c>
       <c r="D6">
-        <v>0.07634308313484439</v>
+        <v>0.06757639055231124</v>
       </c>
       <c r="E6">
-        <v>0.1292146794776521</v>
+        <v>0.1054990213043965</v>
       </c>
       <c r="F6">
-        <v>2.708958570481656</v>
+        <v>1.626723010691947</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.369978288872012</v>
+        <v>0.7833975367956185</v>
       </c>
       <c r="J6">
-        <v>0.2077353566308489</v>
+        <v>0.167389614373235</v>
       </c>
       <c r="K6">
-        <v>0.9349733014612411</v>
+        <v>1.233852787510898</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.581074700493801</v>
+        <v>1.442721319193886</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7018924416694858</v>
+        <v>1.001442610741407</v>
       </c>
       <c r="C7">
-        <v>0.2536480443220057</v>
+        <v>0.3091963430715623</v>
       </c>
       <c r="D7">
-        <v>0.07703848273277458</v>
+        <v>0.07084058498882229</v>
       </c>
       <c r="E7">
-        <v>0.1300529870201252</v>
+        <v>0.1097752892646255</v>
       </c>
       <c r="F7">
-        <v>2.711417123964438</v>
+        <v>1.654431193062507</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.36962296801287</v>
+        <v>0.7902185139445592</v>
       </c>
       <c r="J7">
-        <v>0.2088640747466641</v>
+        <v>0.1733718997059768</v>
       </c>
       <c r="K7">
-        <v>0.9491105431764311</v>
+        <v>1.293161142219247</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.575752684098724</v>
+        <v>1.430481206006526</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7527581237681886</v>
+        <v>1.209756854074982</v>
       </c>
       <c r="C8">
-        <v>0.2675286589344523</v>
+        <v>0.369728203144831</v>
       </c>
       <c r="D8">
-        <v>0.08019749994583236</v>
+        <v>0.0853714473449827</v>
       </c>
       <c r="E8">
-        <v>0.1339155521335051</v>
+        <v>0.1289953500388421</v>
       </c>
       <c r="F8">
-        <v>2.72514075881476</v>
+        <v>1.783205960870418</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.369378960174068</v>
+        <v>0.8233302763569768</v>
       </c>
       <c r="J8">
-        <v>0.2141141162422926</v>
+        <v>0.2004322410447088</v>
       </c>
       <c r="K8">
-        <v>1.0128057680175</v>
+        <v>1.558467799787167</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.553863374647563</v>
+        <v>1.380132643067427</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8559326802432565</v>
+        <v>1.629909795458531</v>
       </c>
       <c r="C9">
-        <v>0.2960588165684896</v>
+        <v>0.4933842384203331</v>
       </c>
       <c r="D9">
-        <v>0.08671518670705325</v>
+        <v>0.114457008535652</v>
       </c>
       <c r="E9">
-        <v>0.1420777950149841</v>
+        <v>0.1682335978780003</v>
       </c>
       <c r="F9">
-        <v>2.762407981765648</v>
+        <v>2.062870657667602</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.373669887941404</v>
+        <v>0.9006171004602308</v>
       </c>
       <c r="J9">
-        <v>0.2253812985056811</v>
+        <v>0.2563928283223333</v>
       </c>
       <c r="K9">
-        <v>1.142437021405044</v>
+        <v>2.095331634800459</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.516684461755077</v>
+        <v>1.295714210959972</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9338402286476537</v>
+        <v>1.948502846087337</v>
       </c>
       <c r="C10">
-        <v>0.3178306191757656</v>
+        <v>0.58836744824589</v>
       </c>
       <c r="D10">
-        <v>0.09169963031925477</v>
+        <v>0.1363295680966843</v>
       </c>
       <c r="E10">
-        <v>0.14843482373076</v>
+        <v>0.1983118440163807</v>
       </c>
       <c r="F10">
-        <v>2.796132083912823</v>
+        <v>2.288837380311193</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.379743150831558</v>
+        <v>0.9665355552137669</v>
       </c>
       <c r="J10">
-        <v>0.2342571856878948</v>
+        <v>0.2998169682210516</v>
       </c>
       <c r="K10">
-        <v>1.240586262868902</v>
+        <v>2.503785588369908</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.492882011755796</v>
+        <v>1.243615792344784</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9697435849798808</v>
+        <v>2.096285319330434</v>
       </c>
       <c r="C11">
-        <v>0.3279139580951664</v>
+        <v>0.6327530020528798</v>
       </c>
       <c r="D11">
-        <v>0.0940095702992636</v>
+        <v>0.1464246778810434</v>
       </c>
       <c r="E11">
-        <v>0.1514054942526499</v>
+        <v>0.2123425062003008</v>
       </c>
       <c r="F11">
-        <v>2.812858823555317</v>
+        <v>2.397067262705576</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.383143276038645</v>
+        <v>0.9989053403926533</v>
       </c>
       <c r="J11">
-        <v>0.2384261352473516</v>
+        <v>0.3202085861341715</v>
       </c>
       <c r="K11">
-        <v>1.285875558275734</v>
+        <v>2.693614767594852</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.482818692443018</v>
+        <v>1.222368311591552</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9834059455107536</v>
+        <v>2.1527210060176</v>
       </c>
       <c r="C12">
-        <v>0.3317582010879789</v>
+        <v>0.6497557794578768</v>
       </c>
       <c r="D12">
-        <v>0.09489036937600304</v>
+        <v>0.150271545023827</v>
       </c>
       <c r="E12">
-        <v>0.1525417665050597</v>
+        <v>0.2177125868977825</v>
       </c>
       <c r="F12">
-        <v>2.819392504738801</v>
+        <v>2.43892397413974</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.384522680477438</v>
+        <v>1.011542655220317</v>
       </c>
       <c r="J12">
-        <v>0.2400237617334398</v>
+        <v>0.3280346117296631</v>
       </c>
       <c r="K12">
-        <v>1.303117896873715</v>
+        <v>2.766165931446693</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.479118127891908</v>
+        <v>1.214703226304664</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9804605525689567</v>
+        <v>2.140544425095527</v>
       </c>
       <c r="C13">
-        <v>0.3309291205556519</v>
+        <v>0.6460848196500137</v>
       </c>
       <c r="D13">
-        <v>0.09470040390854706</v>
+        <v>0.1494419287013358</v>
       </c>
       <c r="E13">
-        <v>0.1522965452825744</v>
+        <v>0.2165533918826554</v>
       </c>
       <c r="F13">
-        <v>2.817976474662629</v>
+        <v>2.429869038331461</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.384221512768036</v>
+        <v>1.008803473318189</v>
       </c>
       <c r="J13">
-        <v>0.2396788411431174</v>
+        <v>0.3263442922843893</v>
       </c>
       <c r="K13">
-        <v>1.29940034505546</v>
+        <v>2.750509565655733</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.479910205533642</v>
+        <v>1.216336618496896</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9708662621339386</v>
+        <v>2.100918437824816</v>
       </c>
       <c r="C14">
-        <v>0.3282297064395152</v>
+        <v>0.6341477673871054</v>
       </c>
       <c r="D14">
-        <v>0.09408191261897514</v>
+        <v>0.1467406601859125</v>
       </c>
       <c r="E14">
-        <v>0.1514987486563371</v>
+        <v>0.2127831218512171</v>
       </c>
       <c r="F14">
-        <v>2.813392350290627</v>
+        <v>2.400492802775261</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.383254918498388</v>
+        <v>0.9999371877313195</v>
       </c>
       <c r="J14">
-        <v>0.2385571930911539</v>
+        <v>0.3208502744698336</v>
       </c>
       <c r="K14">
-        <v>1.287292245936385</v>
+        <v>2.699569687675961</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.482512034789266</v>
+        <v>1.221729894779543</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9649981471709452</v>
+        <v>2.076710054642035</v>
       </c>
       <c r="C15">
-        <v>0.3265796142908641</v>
+        <v>0.6268621717856036</v>
       </c>
       <c r="D15">
-        <v>0.09370385894199273</v>
+        <v>0.1450892897038045</v>
       </c>
       <c r="E15">
-        <v>0.1510115527514202</v>
+        <v>0.2104813602761197</v>
       </c>
       <c r="F15">
-        <v>2.810610451140988</v>
+        <v>2.382615471956555</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.382674819222686</v>
+        <v>0.9945569235555709</v>
       </c>
       <c r="J15">
-        <v>0.2378726190697193</v>
+        <v>0.317498986453117</v>
       </c>
       <c r="K15">
-        <v>1.279887705305839</v>
+        <v>2.668457189170709</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.484120088820916</v>
+        <v>1.225083921947487</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9315031716763258</v>
+        <v>1.93890759971606</v>
       </c>
       <c r="C16">
-        <v>0.3171752668037016</v>
+        <v>0.5854925681676093</v>
       </c>
       <c r="D16">
-        <v>0.09154952232157143</v>
+        <v>0.1356730160646435</v>
       </c>
       <c r="E16">
-        <v>0.1482422703407451</v>
+        <v>0.1974024860511534</v>
       </c>
       <c r="F16">
-        <v>2.795066865316301</v>
+        <v>2.281881239585658</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.379533786977689</v>
+        <v>0.9644711372767105</v>
       </c>
       <c r="J16">
-        <v>0.2339873815182045</v>
+        <v>0.2984981972378051</v>
       </c>
       <c r="K16">
-        <v>1.237639404777127</v>
+        <v>2.491468104744371</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.493555079581981</v>
+        <v>1.245056059467885</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9110736169455436</v>
+        <v>1.855144118627322</v>
       </c>
       <c r="C17">
-        <v>0.3114520009980879</v>
+        <v>0.5604325879018006</v>
       </c>
       <c r="D17">
-        <v>0.0902387644421907</v>
+        <v>0.1299357950157258</v>
       </c>
       <c r="E17">
-        <v>0.1465636005731739</v>
+        <v>0.1894728559548682</v>
       </c>
       <c r="F17">
-        <v>2.785886513406794</v>
+        <v>2.221538121848582</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.377770250478903</v>
+        <v>0.9466499546806446</v>
       </c>
       <c r="J17">
-        <v>0.2316375764883389</v>
+        <v>0.2870136429184242</v>
       </c>
       <c r="K17">
-        <v>1.211885634241298</v>
+        <v>2.383981344556958</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.499539137773127</v>
+        <v>1.257955603926717</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8993666409330103</v>
+        <v>1.807229953024745</v>
       </c>
       <c r="C18">
-        <v>0.3081769927461551</v>
+        <v>0.5461278685427544</v>
       </c>
       <c r="D18">
-        <v>0.08948885277121121</v>
+        <v>0.1266493529204951</v>
       </c>
       <c r="E18">
-        <v>0.1456054930734965</v>
+        <v>0.1849442353180635</v>
       </c>
       <c r="F18">
-        <v>2.780736601070444</v>
+        <v>2.187336121825496</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.376815890890114</v>
+        <v>0.9366215771336712</v>
       </c>
       <c r="J18">
-        <v>0.2302983823195319</v>
+        <v>0.2804672431240078</v>
       </c>
       <c r="K18">
-        <v>1.197133045249331</v>
+        <v>2.322530502352663</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.50305295567064</v>
+        <v>1.265604052855736</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8954103426145537</v>
+        <v>1.791050615488672</v>
       </c>
       <c r="C19">
-        <v>0.307071023591277</v>
+        <v>0.541302539193822</v>
       </c>
       <c r="D19">
-        <v>0.08923563392389156</v>
+        <v>0.1255388388284047</v>
       </c>
       <c r="E19">
-        <v>0.145282368292726</v>
+        <v>0.1834162680905749</v>
       </c>
       <c r="F19">
-        <v>2.779015310708061</v>
+        <v>2.175840163411877</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.37650305677392</v>
+        <v>0.9332631875429342</v>
       </c>
       <c r="J19">
-        <v>0.2298470737540299</v>
+        <v>0.2782605552522455</v>
       </c>
       <c r="K19">
-        <v>1.192148424560003</v>
+        <v>2.301785756405963</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.504255023080432</v>
+        <v>1.268232199365983</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.913243869381887</v>
+        <v>1.86403308321411</v>
       </c>
       <c r="C20">
-        <v>0.3120595062557641</v>
+        <v>0.5630887949587873</v>
       </c>
       <c r="D20">
-        <v>0.09037788296384974</v>
+        <v>0.1305451172317902</v>
       </c>
       <c r="E20">
-        <v>0.1467415299418064</v>
+        <v>0.1903135883295377</v>
       </c>
       <c r="F20">
-        <v>2.786850280489219</v>
+        <v>2.227908777446316</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.37795177281626</v>
+        <v>0.9485238293015286</v>
       </c>
       <c r="J20">
-        <v>0.2318864384757262</v>
+        <v>0.288229978909385</v>
       </c>
       <c r="K20">
-        <v>1.214620925465539</v>
+        <v>2.395384306720047</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.498894676571283</v>
+        <v>1.25655853246127</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9736825320528624</v>
+        <v>2.1125441579278</v>
       </c>
       <c r="C21">
-        <v>0.3290218858193157</v>
+        <v>0.6376484605842165</v>
       </c>
       <c r="D21">
-        <v>0.09426341391073834</v>
+        <v>0.1475334080178641</v>
       </c>
       <c r="E21">
-        <v>0.1517327729250653</v>
+        <v>0.2138889364647127</v>
       </c>
       <c r="F21">
-        <v>2.814733397683369</v>
+        <v>2.409096869633601</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.383536336265003</v>
+        <v>1.002530816206168</v>
       </c>
       <c r="J21">
-        <v>0.2388861339176742</v>
+        <v>0.3224610680810542</v>
       </c>
       <c r="K21">
-        <v>1.290846183014366</v>
+        <v>2.714513110774533</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.481744821705561</v>
+        <v>1.220135182157037</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.013570527292131</v>
+        <v>2.277755664855135</v>
       </c>
       <c r="C22">
-        <v>0.3402588151404871</v>
+        <v>0.6875276634326326</v>
       </c>
       <c r="D22">
-        <v>0.09683822632146644</v>
+        <v>0.1587782407819418</v>
       </c>
       <c r="E22">
-        <v>0.1550609635158722</v>
+        <v>0.229632620956437</v>
       </c>
       <c r="F22">
-        <v>2.834120401188784</v>
+        <v>2.532647811510373</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.387721642510073</v>
+        <v>1.040059927061918</v>
       </c>
       <c r="J22">
-        <v>0.2435712402594277</v>
+        <v>0.345446940540441</v>
       </c>
       <c r="K22">
-        <v>1.341201654321907</v>
+        <v>2.927017833952277</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.471178829844632</v>
+        <v>1.198565767432854</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9922460700466331</v>
+        <v>2.18930073530197</v>
       </c>
       <c r="C23">
-        <v>0.3342475922470101</v>
+        <v>0.6607917482681387</v>
       </c>
       <c r="D23">
-        <v>0.09546077353724058</v>
+        <v>0.1527625298474078</v>
       </c>
       <c r="E23">
-        <v>0.1532785921244724</v>
+        <v>0.2211967089105542</v>
       </c>
       <c r="F23">
-        <v>2.823666573541004</v>
+        <v>2.46620413700758</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.385438803817422</v>
+        <v>1.019812465254873</v>
       </c>
       <c r="J23">
-        <v>0.2410605890287485</v>
+        <v>0.3331183186797801</v>
       </c>
       <c r="K23">
-        <v>1.314276732149068</v>
+        <v>2.81320820325999</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.476759230073654</v>
+        <v>1.20986310994904</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9122625791175096</v>
+        <v>1.86001363147065</v>
       </c>
       <c r="C24">
-        <v>0.3117848052524153</v>
+        <v>0.5618876060860032</v>
       </c>
       <c r="D24">
-        <v>0.09031497607581684</v>
+        <v>0.1302696056341546</v>
       </c>
       <c r="E24">
-        <v>0.1466610663278942</v>
+        <v>0.1899333995813848</v>
       </c>
       <c r="F24">
-        <v>2.786414162706507</v>
+        <v>2.225027084353258</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.37786952116474</v>
+        <v>0.9476759766178517</v>
       </c>
       <c r="J24">
-        <v>0.2317738914086931</v>
+        <v>0.2876798992096496</v>
       </c>
       <c r="K24">
-        <v>1.213384133365366</v>
+        <v>2.39022796036619</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.499185808514738</v>
+        <v>1.257189426915758</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8276527040744952</v>
+        <v>1.514725563059159</v>
       </c>
       <c r="C25">
-        <v>0.2881991530478558</v>
+        <v>0.4592930225862517</v>
       </c>
       <c r="D25">
-        <v>0.08491751243862211</v>
+        <v>0.1065113116495553</v>
       </c>
       <c r="E25">
-        <v>0.1398065722140913</v>
+        <v>0.157422920671749</v>
       </c>
       <c r="F25">
-        <v>2.751214431737125</v>
+        <v>1.983922018402382</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.37199713150563</v>
+        <v>0.8782294313340415</v>
       </c>
       <c r="J25">
-        <v>0.2222286259927557</v>
+        <v>0.2408907573474011</v>
       </c>
       <c r="K25">
-        <v>1.106859545683477</v>
+        <v>1.94793715581369</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.526126182016057</v>
+        <v>1.316902375614148</v>
       </c>
       <c r="O25">
         <v>0</v>
